--- a/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
+++ b/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
@@ -33,7 +33,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中國信託商業銀行斗六分 行</t>
+    <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
     <t>復華銀行</t>
@@ -57,7 +57,7 @@
     <t>臺灣銀行斗六分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司斗 六西平郵局政治獻金專戶</t>
+    <t>中華郵政股份有限公司斗六西平郵局政治獻金專戶</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -93,7 +93,7 @@
     <t>雙喜臨門B型儲蓄險</t>
   </si>
   <si>
-    <t>保險年齡至保險人四If四歲 繳費期間六年年繳二十萬</t>
+    <t>保險年齡至保險人四If四歲繳費期間六年年繳二十萬</t>
   </si>
   <si>
     <t>債務人</t>
@@ -114,10 +114,10 @@
     <t>貸款</t>
   </si>
   <si>
-    <t>斗六市農會 雲林縣斗六市民生路</t>
-  </si>
-  <si>
-    <t>99年12月 08日</t>
+    <t>斗六市農會雲林縣斗六市民生路</t>
+  </si>
+  <si>
+    <t>99年12月08日</t>
   </si>
   <si>
     <t>代償債務</t>

--- a/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
+++ b/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
@@ -16,26 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>劉建國</t>
+  </si>
+  <si>
     <t>復華銀行</t>
   </si>
   <si>
@@ -60,33 +54,12 @@
     <t>中華郵政股份有限公司斗六西平郵局政治獻金專戶</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>其他存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>劉建國</t>
-  </si>
-  <si>
     <t>145.TO0</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
@@ -94,21 +67,6 @@
   </si>
   <si>
     <t>保險年齡至保險人四If四歲繳費期間六年年繳二十萬</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>貸款</t>
@@ -479,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,187 +456,167 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1">
+        <v>46845</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>46845</v>
+        <v>278915</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
-        <v>278915</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>100000</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>275</v>
+        <v>395736</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>395736</v>
+        <v>303891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>303891</v>
+        <v>1325667</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>1325667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
         <v>2917497</v>
       </c>
     </row>
@@ -689,41 +627,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -733,53 +654,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5200000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
+++ b/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>中國信託商業銀行斗六分行</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +462,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -477,15 +477,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>278915</v>
+        <v>46845</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -496,16 +496,16 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
+      <c r="F3" s="2">
+        <v>278915</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -516,16 +516,16 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
-        <v>100000</v>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -537,15 +537,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>275</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -557,15 +557,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>395736</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -577,15 +577,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>303891</v>
+        <v>395736</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -597,26 +597,46 @@
         <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>1325667</v>
+        <v>303891</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1325667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>52</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
         <v>2917497</v>
       </c>
     </row>
@@ -627,13 +647,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -644,6 +664,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -654,13 +691,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -677,6 +714,29 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5200000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
+++ b/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
@@ -16,48 +16,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
+    <t>復華銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>京城商業銀行</t>
+  </si>
+  <si>
+    <t>斗六市農會</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司斗六西平郵局政治獻金專戶</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>劉建國</t>
   </si>
   <si>
-    <t>復華銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>京城商業銀行</t>
-  </si>
-  <si>
-    <t>斗六市農會</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司斗六西平郵局政治獻金專戶</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>145.TO0</t>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>tmp9aab1</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -437,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,188 +501,398 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>46845</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>46845</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>278915</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>145</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>395736</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>303891</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>1325667</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>2917497</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -655,16 +910,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -672,16 +927,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -699,22 +954,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1">
         <v>5200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -722,22 +977,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2">
         <v>5200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
+++ b/legislator/property/output/normal/劉建國_2011-12-31_財產申報表_tmp9aab1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>bank</t>
   </si>
@@ -105,13 +105,31 @@
     <t>tmp9aab1</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
     <t>雙喜臨門B型儲蓄險</t>
   </si>
   <si>
-    <t>保險年齡至保險人四If四歲繳費期間六年年繳二十萬</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
   </si>
   <si>
     <t>貸款</t>
@@ -124,6 +142,9 @@
   </si>
   <si>
     <t>代償債務</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -902,13 +923,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -916,27 +937,63 @@
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1723</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -946,53 +1003,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5200000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>5200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1723</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
